--- a/DataTable/q_地图表.xlsx
+++ b/DataTable/q_地图表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14580"/>
+    <workbookView windowWidth="28080" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="q_map" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
   <si>
     <t>q_id</t>
   </si>
@@ -157,6 +157,9 @@
     <t>q_obj</t>
   </si>
   <si>
+    <t>q_height</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>地图的对象数据</t>
   </si>
   <si>
+    <t>地图高度数据</t>
+  </si>
+  <si>
     <t>随机传送卷</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
   </si>
   <si>
     <t>GData/Scene/ObjPos/yland_1.txt</t>
+  </si>
+  <si>
+    <t>GData/Scene/Height/yland_1.txt</t>
   </si>
   <si>
     <t>回城卷</t>
@@ -768,12 +777,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -811,19 +820,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -840,13 +836,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -854,8 +843,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -919,13 +909,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -934,19 +917,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -994,6 +968,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1004,193 +1013,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249946592608417"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,21 +1238,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1269,17 +1263,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1331,193 +1314,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="3">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="33" borderId="10">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1620,8 +1629,8 @@
     <cellStyle name="常规 4" xfId="58"/>
     <cellStyle name="常规 5" xfId="59"/>
     <cellStyle name="好_战斗公式模型方案2" xfId="60"/>
-    <cellStyle name="货币 2" xfId="61"/>
-    <cellStyle name="输入 2" xfId="62"/>
+    <cellStyle name="输入 2" xfId="61"/>
+    <cellStyle name="货币 2" xfId="62"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1973,13 +1982,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="10" customWidth="1"/>
@@ -1998,7 +2007,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" s="9" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2014,25 +2023,31 @@
       <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="11"/>
       <c r="B4" s="11">
         <v>1</v>
@@ -2046,82 +2061,97 @@
       <c r="E4" s="11">
         <v>1</v>
       </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="13.5" spans="1:5">
+    <row r="6" s="9" customFormat="1" ht="13.5" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" s="9" customFormat="1" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" spans="1:6">
       <c r="A7" s="11">
         <v>1001</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" s="9" customFormat="1" spans="1:6">
       <c r="A8" s="11">
         <v>1002</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="1:6">
       <c r="A9" s="11">
         <v>1003</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
+      <c r="F9" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2153,217 +2183,217 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="3:7">
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2393,31 +2423,31 @@
     <row r="1" spans="1:13">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="M1" s="5">
         <v>2</v>
@@ -2425,34 +2455,34 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M2" s="5">
         <v>3</v>
@@ -2460,34 +2490,34 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M3" s="5">
         <v>4</v>
@@ -2495,34 +2525,34 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M4" s="5">
         <v>5</v>
@@ -2539,7 +2569,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="L5" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M5" s="5">
         <v>6</v>
@@ -2548,31 +2578,31 @@
     <row r="6" spans="1:13">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M6" s="5">
         <v>7</v>
@@ -2580,34 +2610,34 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M7" s="5">
         <v>8</v>
@@ -2615,7 +2645,7 @@
     </row>
     <row r="8" spans="12:13">
       <c r="L8" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M8" s="5">
         <v>9</v>
@@ -2624,62 +2654,62 @@
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M11" s="6">
         <v>2</v>
@@ -2687,25 +2717,25 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F12" s="5">
         <v>3</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M12" s="6">
         <v>3</v>
@@ -2713,25 +2743,25 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M13" s="6">
         <v>4</v>
@@ -2739,238 +2769,238 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F14" s="5">
         <v>5</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F15" s="5">
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
